--- a/public/exports/quiz-results-7a489a2f-b8d9-443c-bc16-415e8790b70d.xlsx
+++ b/public/exports/quiz-results-7a489a2f-b8d9-443c-bc16-415e8790b70d.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -602,9 +602,130 @@
         <v>11/2/2025, 11:31:19 pm</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>71</v>
+      </c>
+      <c r="C19" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>84</v>
+      </c>
+      <c r="C22" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>64</v>
+      </c>
+      <c r="C23" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+      <c r="C24" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
+      <c r="C25" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>42</v>
+      </c>
+      <c r="C26" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>78</v>
+      </c>
+      <c r="C27" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>56</v>
+      </c>
+      <c r="C29" t="str">
+        <v>11/2/2025, 11:39:22 pm</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C29"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -650,16 +771,16 @@
         <v>4, 3</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="str">
-        <v>79%</v>
+        <v>87%</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +792,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -976,9 +1097,189 @@
         <v>89</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4</v>
+      </c>
+      <c r="B16" t="str">
+        <v>What is 2+2?</v>
+      </c>
+      <c r="C16" t="str">
+        <v>4</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E16">
+        <v>9.629</v>
+      </c>
+      <c r="F16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>5</v>
+      </c>
+      <c r="B17" t="str">
+        <v>What is 2+2?</v>
+      </c>
+      <c r="C17" t="str">
+        <v>4</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E17">
+        <v>16.812</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2</v>
+      </c>
+      <c r="B18" t="str">
+        <v>What is 2+2?</v>
+      </c>
+      <c r="C18" t="str">
+        <v>4</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E18">
+        <v>5.272</v>
+      </c>
+      <c r="F18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>4</v>
+      </c>
+      <c r="B19" t="str">
+        <v>What is 2+2?</v>
+      </c>
+      <c r="C19" t="str">
+        <v>4</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E19">
+        <v>12.132</v>
+      </c>
+      <c r="F19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>8</v>
+      </c>
+      <c r="B20" t="str">
+        <v>What is 2+2?</v>
+      </c>
+      <c r="C20" t="str">
+        <v>4</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E20">
+        <v>23.935</v>
+      </c>
+      <c r="F20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>7</v>
+      </c>
+      <c r="B21" t="str">
+        <v>What is 2+2?</v>
+      </c>
+      <c r="C21" t="str">
+        <v>4</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E21">
+        <v>21.556</v>
+      </c>
+      <c r="F21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>6</v>
+      </c>
+      <c r="B22" t="str">
+        <v>What is 2+2?</v>
+      </c>
+      <c r="C22" t="str">
+        <v>4</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E22">
+        <v>19.17</v>
+      </c>
+      <c r="F22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>3</v>
+      </c>
+      <c r="B23" t="str">
+        <v>What is 2+2?</v>
+      </c>
+      <c r="C23" t="str">
+        <v>4</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E23">
+        <v>7.388</v>
+      </c>
+      <c r="F23">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>9</v>
+      </c>
+      <c r="B24" t="str">
+        <v>What is 2+2?</v>
+      </c>
+      <c r="C24" t="str">
+        <v>4</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E24">
+        <v>14.533</v>
+      </c>
+      <c r="F24">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F24"/>
   </ignoredErrors>
 </worksheet>
 </file>